--- a/QC/Sure/Sure Automation/Documents/Order Management/New Service Order/NewServiceOrderBasicServices.xlsx
+++ b/QC/Sure/Sure Automation/Documents/Order Management/New Service Order/NewServiceOrderBasicServices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="ProfileOptions" sheetId="5" r:id="rId5"/>
     <sheet name="Privileges" sheetId="6" r:id="rId6"/>
     <sheet name="JobData" sheetId="7" r:id="rId7"/>
+    <sheet name="TestCaseResults" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$D$1:$D$6</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="174">
   <si>
     <t>TestCaseNo</t>
   </si>
@@ -103,7 +104,7 @@
     <t>creating basic service</t>
   </si>
   <si>
-    <t>btnsave</t>
+    <t>uxBasicServiceCtrl_btnsave</t>
   </si>
   <si>
     <t>DA-01</t>
@@ -416,22 +417,22 @@
     <t>service group</t>
   </si>
   <si>
-    <t>grpcode</t>
+    <t>uxServiceGroupCtrl_grpcode</t>
   </si>
   <si>
     <t>SRVGRP16</t>
   </si>
   <si>
-    <t>grpdescr</t>
-  </si>
-  <si>
-    <t>svcclass</t>
+    <t>uxServiceGroupCtrl_grpdescr</t>
+  </si>
+  <si>
+    <t>uxServiceGroupCtrl_svcclass</t>
   </si>
   <si>
     <t>TV Channel</t>
   </si>
   <si>
-    <t>servicelist</t>
+    <t>uxServiceGroupCtrl_servicelist</t>
   </si>
   <si>
     <t>$0.BYTAGNAME.LABEL.SERVNSO16$</t>
@@ -443,22 +444,13 @@
     <t>submitButton</t>
   </si>
   <si>
-    <t>btnmovert</t>
+    <t>uxServiceGroupCtrl_btnmovert</t>
   </si>
   <si>
     <t>save service group</t>
   </si>
   <si>
-    <t>save service</t>
-  </si>
-  <si>
-    <t>check service</t>
-  </si>
-  <si>
-    <t>$0.BYINDEX$</t>
-  </si>
-  <si>
-    <t>$0.BYTYPE.CHECKBOX.NO$</t>
+    <t>uxServiceGroupCtrl_btnsave</t>
   </si>
   <si>
     <t>PageDataNo</t>
@@ -470,28 +462,34 @@
     <t>Page control ID's should be specified</t>
   </si>
   <si>
-    <t>svccode</t>
-  </si>
-  <si>
-    <t>svcdescr</t>
-  </si>
-  <si>
-    <t>packageable</t>
-  </si>
-  <si>
-    <t>actreqd</t>
-  </si>
-  <si>
-    <t>chkbouquet</t>
-  </si>
-  <si>
-    <t>chkaddon</t>
-  </si>
-  <si>
-    <t>svcstatus</t>
-  </si>
-  <si>
-    <t>ddlbusinessdivision</t>
+    <t>uxBasicServiceCtrl_svccode</t>
+  </si>
+  <si>
+    <t>uxBasicServiceCtrl_svcdescr</t>
+  </si>
+  <si>
+    <t>uxBasicServiceCtrl_packageable</t>
+  </si>
+  <si>
+    <t>uxBasicServiceCtrl_actreqd</t>
+  </si>
+  <si>
+    <t>uxBasicServiceCtrl_chkbouquet</t>
+  </si>
+  <si>
+    <t>uxBasicServiceCtrl_chkaddon</t>
+  </si>
+  <si>
+    <t>uxBasicServiceCtrl_svcclass</t>
+  </si>
+  <si>
+    <t>uxBasicServiceCtrl_svcstatus</t>
+  </si>
+  <si>
+    <t>uxBasicServiceCtrl_sbattr_ITEM</t>
+  </si>
+  <si>
+    <t>uxBasicServiceCtrl_sbattr_QUANTITY</t>
   </si>
   <si>
     <t>ControlNames</t>
@@ -609,6 +607,12 @@
   </si>
   <si>
     <t>RowType</t>
+  </si>
+  <si>
+    <t>DateofExecution</t>
+  </si>
+  <si>
+    <t>Results</t>
   </si>
 </sst>
 </file>
@@ -617,9 +621,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -648,6 +652,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -656,14 +668,70 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,99 +746,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -784,9 +760,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -814,7 +818,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,37 +938,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,133 +998,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,9 +1014,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,26 +1086,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1094,21 +1109,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1126,131 +1130,131 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1283,12 +1287,12 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
     <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
@@ -1684,10 +1688,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1695,8 +1699,8 @@
     <col min="1" max="1" width="11.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="13.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="22.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="90" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="48.8571428571429" style="3" customWidth="1"/>
+    <col min="5" max="5" width="35.1428571428571" customWidth="1"/>
     <col min="6" max="7" width="15.4285714285714" customWidth="1"/>
     <col min="8" max="8" width="16.7142857142857" customWidth="1"/>
     <col min="9" max="9" width="19.4285714285714" customWidth="1"/>
@@ -1747,7 +1751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="30" spans="3:4">
+    <row r="2" ht="45" spans="3:4">
       <c r="C2" t="s">
         <v>13</v>
       </c>
@@ -1755,7 +1759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" ht="30" spans="3:4">
+    <row r="3" ht="45" spans="3:4">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -1763,7 +1767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="60" spans="3:4">
+    <row r="4" ht="90" spans="3:4">
       <c r="C4" t="s">
         <v>17</v>
       </c>
@@ -1771,7 +1775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
+    <row r="5" ht="30" spans="3:4">
       <c r="C5" t="s">
         <v>19</v>
       </c>
@@ -1787,61 +1791,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8">
-        <v>122</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9">
-        <v>122</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9">
-        <v>1000</v>
-      </c>
-    </row>
     <row r="10" spans="1:13">
       <c r="A10" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>122</v>
@@ -1856,7 +1808,7 @@
         <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J10" t="s">
         <v>27</v>
@@ -1867,7 +1819,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>122</v>
@@ -1882,7 +1834,7 @@
         <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J11" t="s">
         <v>27</v>
@@ -1893,7 +1845,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>122</v>
@@ -1908,7 +1860,7 @@
         <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J12" t="s">
         <v>27</v>
@@ -1919,7 +1871,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>122</v>
@@ -1934,7 +1886,7 @@
         <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J13" t="s">
         <v>27</v>
@@ -1945,7 +1897,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>122</v>
@@ -1960,7 +1912,7 @@
         <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J14" t="s">
         <v>27</v>
@@ -1971,7 +1923,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>122</v>
@@ -1986,7 +1938,7 @@
         <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s">
         <v>27</v>
@@ -1997,7 +1949,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>122</v>
@@ -2012,7 +1964,7 @@
         <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J16" t="s">
         <v>27</v>
@@ -2023,7 +1975,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>122</v>
@@ -2038,7 +1990,7 @@
         <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J17" t="s">
         <v>27</v>
@@ -2049,7 +2001,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>122</v>
@@ -2064,7 +2016,7 @@
         <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J18" t="s">
         <v>27</v>
@@ -2075,7 +2027,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <v>122</v>
@@ -2090,7 +2042,7 @@
         <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J19" t="s">
         <v>27</v>
@@ -2101,7 +2053,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B20">
         <v>122</v>
@@ -2116,7 +2068,7 @@
         <v>25</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J20" t="s">
         <v>27</v>
@@ -2127,7 +2079,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B21">
         <v>122</v>
@@ -2142,7 +2094,7 @@
         <v>25</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J21" t="s">
         <v>27</v>
@@ -2153,7 +2105,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B22">
         <v>122</v>
@@ -2168,7 +2120,7 @@
         <v>25</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J22" t="s">
         <v>27</v>
@@ -2177,13 +2129,35 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" customFormat="1" spans="1:4">
-      <c r="A23" s="8"/>
-      <c r="D23" s="3"/>
+    <row r="23" spans="1:13">
+      <c r="A23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23">
+        <v>122</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23">
+        <v>1000</v>
+      </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B24">
         <v>122</v>
@@ -2198,7 +2172,7 @@
         <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J24" t="s">
         <v>27</v>
@@ -2207,50 +2181,50 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25">
+    <row r="25" customFormat="1" spans="1:1">
+      <c r="A25" s="8"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26">
         <v>122</v>
       </c>
-      <c r="C25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" t="s">
-        <v>61</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" t="s">
         <v>27</v>
       </c>
-      <c r="M25">
+      <c r="M26">
         <v>1000</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="7"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B27">
         <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" t="s">
-        <v>25</v>
+        <v>59</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J27" t="s">
         <v>27</v>
@@ -2259,72 +2233,48 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" customFormat="1" spans="1:4">
-      <c r="A28" s="8"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="30" ht="19" customHeight="1" spans="1:1">
-      <c r="A30" s="7"/>
-    </row>
-    <row r="31" s="6" customFormat="1" spans="1:4">
-      <c r="A31" s="9"/>
-      <c r="D31" s="10"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32">
+    <row r="28" spans="1:1">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29">
         <v>122</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C29" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" t="s">
         <v>25</v>
       </c>
-      <c r="G32" t="s">
-        <v>66</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="G29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" t="s">
         <v>27</v>
       </c>
-      <c r="M32">
+      <c r="M29">
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33">
-        <v>122</v>
-      </c>
-      <c r="C33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J33" t="s">
-        <v>27</v>
-      </c>
-      <c r="M33">
-        <v>1000</v>
-      </c>
+    <row r="30" customFormat="1" spans="1:1">
+      <c r="A30" s="8"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" s="6" customFormat="1" spans="1:4">
+      <c r="A33" s="9"/>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B34">
         <v>122</v>
@@ -2339,7 +2289,7 @@
         <v>25</v>
       </c>
       <c r="G34" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J34" t="s">
         <v>27</v>
@@ -2350,7 +2300,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B35">
         <v>122</v>
@@ -2365,7 +2315,7 @@
         <v>25</v>
       </c>
       <c r="G35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J35" t="s">
         <v>27</v>
@@ -2374,11 +2324,57 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="7"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="7"/>
+    <row r="36" spans="1:13">
+      <c r="A36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36">
+        <v>122</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s">
+        <v>70</v>
+      </c>
+      <c r="J36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37">
+        <v>122</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s">
+        <v>72</v>
+      </c>
+      <c r="J37" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37">
+        <v>1000</v>
+      </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="7"/>
@@ -2397,99 +2393,6 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="7"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="7"/>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="7"/>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="7"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="7"/>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="7"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="7"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="7"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="7"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="7"/>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="7"/>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="7"/>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="7"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="7"/>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="7"/>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="7"/>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="7"/>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="7"/>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="7"/>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="7"/>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="7"/>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="7"/>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="7"/>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="7"/>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="7"/>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="7"/>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="7"/>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="7"/>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="7"/>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="7"/>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="7"/>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="7"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -2505,10 +2408,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2517,9 +2420,9 @@
     <col min="2" max="2" width="9.71428571428571" customWidth="1"/>
     <col min="3" max="3" width="19.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="31.2857142857143" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="37.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="42" customWidth="1"/>
+    <col min="5" max="5" width="43.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="42.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="15.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2663,257 +2566,128 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
+    <row r="32" customFormat="1" spans="1:6">
+      <c r="A32" t="s">
         <v>61</v>
       </c>
-      <c r="B20">
+      <c r="B32">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C32" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F20">
+      <c r="F32">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
+    <row r="33" customFormat="1" spans="1:6">
+      <c r="A33" t="s">
         <v>61</v>
       </c>
-      <c r="B21">
+      <c r="B33">
         <v>2</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C33" t="s">
         <v>83</v>
       </c>
-      <c r="E21" t="s">
+      <c r="D33" s="3"/>
+      <c r="E33" t="s">
         <v>108</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F33" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
+    <row r="34" customFormat="1" spans="1:6">
+      <c r="A34" t="s">
         <v>61</v>
       </c>
-      <c r="B22">
+      <c r="B34">
         <v>3</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C34" t="s">
         <v>83</v>
       </c>
-      <c r="E22" t="s">
+      <c r="D34" s="3"/>
+      <c r="E34" t="s">
         <v>110</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F34" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
+    <row r="35" customFormat="1" spans="1:6">
+      <c r="A35" t="s">
         <v>61</v>
       </c>
-      <c r="B23">
+      <c r="B35">
         <v>4</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C35" t="s">
         <v>83</v>
       </c>
-      <c r="E23" t="s">
+      <c r="D35" s="3"/>
+      <c r="E35" t="s">
         <v>111</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F35" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
+    <row r="36" customFormat="1" spans="1:7">
+      <c r="A36" t="s">
         <v>61</v>
       </c>
-      <c r="B24">
+      <c r="B36">
         <v>5</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4" t="s">
+      <c r="D36" s="5"/>
+      <c r="E36" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F36" t="s">
         <v>114</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
+    <row r="37" customFormat="1" spans="1:5">
+      <c r="A37" t="s">
         <v>61</v>
       </c>
-      <c r="B25">
+      <c r="B37">
         <v>6</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C37" t="s">
         <v>116</v>
       </c>
-      <c r="E25" t="s">
+      <c r="D37" s="3"/>
+      <c r="E37" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
+    <row r="38" customFormat="1" spans="1:5">
+      <c r="A38" t="s">
         <v>61</v>
       </c>
-      <c r="B26">
+      <c r="B38">
         <v>7</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C38" t="s">
         <v>116</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="E38" t="s">
         <v>119</v>
-      </c>
-      <c r="E40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42">
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" t="s">
-        <v>108</v>
-      </c>
-      <c r="F42" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
-        <v>83</v>
-      </c>
-      <c r="E43" t="s">
-        <v>110</v>
-      </c>
-      <c r="F43" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44">
-        <v>6</v>
-      </c>
-      <c r="C44" t="s">
-        <v>83</v>
-      </c>
-      <c r="E44" t="s">
-        <v>111</v>
-      </c>
-      <c r="F44" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5">
-      <c r="B46">
-        <v>8</v>
-      </c>
-      <c r="C46" t="s">
-        <v>116</v>
-      </c>
-      <c r="E46" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5">
-      <c r="B47">
-        <v>9</v>
-      </c>
-      <c r="C47" t="s">
-        <v>116</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E47" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2927,10 +2701,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2941,11 +2715,12 @@
     <col min="4" max="4" width="25.2857142857143" customWidth="1"/>
     <col min="5" max="5" width="19.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="27.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="27.5714285714286" customWidth="1"/>
-    <col min="8" max="8" width="22.2857142857143" customWidth="1"/>
-    <col min="9" max="9" width="25.7142857142857" customWidth="1"/>
-    <col min="11" max="11" width="17.8571428571429" customWidth="1"/>
-    <col min="12" max="12" width="13.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="30.5714285714286" customWidth="1"/>
+    <col min="8" max="8" width="27.8571428571429" customWidth="1"/>
+    <col min="9" max="9" width="34.2857142857143" customWidth="1"/>
+    <col min="10" max="10" width="31.2857142857143" customWidth="1"/>
+    <col min="11" max="11" width="35.7142857142857" customWidth="1"/>
+    <col min="12" max="12" width="31" customWidth="1"/>
     <col min="13" max="13" width="19.1428571428571" customWidth="1"/>
     <col min="17" max="17" width="23.5714285714286" customWidth="1"/>
     <col min="38" max="38" width="11.7142857142857" customWidth="1"/>
@@ -2958,557 +2733,553 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
         <v>124</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>125</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>126</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>127</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>128</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>129</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>130</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>131</v>
       </c>
-      <c r="I2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>132</v>
-      </c>
-      <c r="K2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" t="s">
         <v>134</v>
-      </c>
-      <c r="B3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s">
         <v>136</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" customHeight="1"/>
+    <row r="7" customFormat="1"/>
+    <row r="8" customFormat="1"/>
+    <row r="9" customFormat="1" spans="1:10">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" t="s">
-        <v>139</v>
-      </c>
-      <c r="I6" t="s">
-        <v>112</v>
-      </c>
-      <c r="J6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" t="s">
-        <v>139</v>
-      </c>
-      <c r="I7" t="s">
-        <v>112</v>
-      </c>
-      <c r="J7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" t="s">
-        <v>139</v>
-      </c>
-      <c r="I8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>143</v>
-      </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I9" t="s">
         <v>112</v>
       </c>
       <c r="J9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:10">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>144</v>
-      </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I10" t="s">
         <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:10">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I11" t="s">
         <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:10">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I12" t="s">
         <v>112</v>
       </c>
       <c r="J12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:10">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I13" t="s">
         <v>112</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:10">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D14" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I14" t="s">
         <v>112</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:10">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I15" t="s">
         <v>112</v>
       </c>
       <c r="J15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:10">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I16" t="s">
         <v>112</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:10">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I17" t="s">
         <v>112</v>
       </c>
       <c r="J17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:10">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I18" t="s">
         <v>112</v>
       </c>
       <c r="J18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:10">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I19" t="s">
         <v>112</v>
       </c>
       <c r="J19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:10">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I20" t="s">
         <v>112</v>
       </c>
       <c r="J20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:10">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D21" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I21" t="s">
         <v>112</v>
       </c>
       <c r="J21" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:10">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" t="s">
+        <v>112</v>
+      </c>
+      <c r="J22" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:10">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I23" t="s">
         <v>112</v>
       </c>
       <c r="J23" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:10">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" t="s">
+        <v>138</v>
+      </c>
+      <c r="I24" t="s">
+        <v>112</v>
+      </c>
+      <c r="J24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1"/>
     <row r="26" customFormat="1" spans="1:10">
       <c r="A26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26"/>
+        <v>64</v>
+      </c>
       <c r="C26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F26" t="s">
-        <v>139</v>
-      </c>
-      <c r="G26"/>
-      <c r="H26"/>
+        <v>138</v>
+      </c>
       <c r="I26" t="s">
         <v>112</v>
       </c>
       <c r="J26" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:10">
-      <c r="A27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27"/>
-      <c r="C27" t="s">
-        <v>158</v>
-      </c>
-      <c r="D27" t="s">
-        <v>158</v>
-      </c>
-      <c r="E27" t="s">
         <v>139</v>
       </c>
-      <c r="F27" t="s">
-        <v>139</v>
-      </c>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27" t="s">
-        <v>112</v>
-      </c>
-      <c r="J27" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:10">
-      <c r="A28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28"/>
-      <c r="C28" t="s">
-        <v>159</v>
-      </c>
-      <c r="D28" t="s">
-        <v>159</v>
-      </c>
-      <c r="E28" t="s">
-        <v>139</v>
-      </c>
-      <c r="F28" t="s">
-        <v>139</v>
-      </c>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28" t="s">
-        <v>112</v>
-      </c>
-      <c r="J28" t="s">
-        <v>140</v>
-      </c>
-    </row>
+    </row>
+    <row r="27" customFormat="1"/>
+    <row r="28" customFormat="1"/>
     <row r="29" customFormat="1" spans="1:10">
       <c r="A29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29"/>
+        <v>66</v>
+      </c>
       <c r="C29" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D29" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F29" t="s">
-        <v>139</v>
-      </c>
-      <c r="G29"/>
-      <c r="H29"/>
+        <v>138</v>
+      </c>
       <c r="I29" t="s">
         <v>112</v>
       </c>
       <c r="J29" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:10">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" t="s">
+        <v>138</v>
+      </c>
+      <c r="I30" t="s">
+        <v>112</v>
+      </c>
+      <c r="J30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:10">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" t="s">
+        <v>138</v>
+      </c>
+      <c r="I31" t="s">
+        <v>112</v>
+      </c>
+      <c r="J31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:10">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" t="s">
+        <v>138</v>
+      </c>
+      <c r="I32" t="s">
+        <v>112</v>
+      </c>
+      <c r="J32" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3537,10 +3308,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" t="s">
         <v>161</v>
-      </c>
-      <c r="B1" t="s">
-        <v>162</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3576,7 +3347,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -3590,22 +3361,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" t="s">
         <v>164</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>165</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>166</v>
-      </c>
-      <c r="F1" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3642,16 +3413,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" t="s">
         <v>168</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>169</v>
       </c>
-      <c r="E1" t="s">
-        <v>170</v>
-      </c>
       <c r="F1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3682,10 +3453,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
         <v>171</v>
-      </c>
-      <c r="B1" t="s">
-        <v>172</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -3706,4 +3477,36 @@
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="11.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="15.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>